--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Il27</t>
+  </si>
+  <si>
+    <t>Il27ra</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Il27</t>
-  </si>
-  <si>
-    <t>Il27ra</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.099735333333333</v>
+        <v>0.1127286666666667</v>
       </c>
       <c r="H2">
-        <v>3.299206</v>
+        <v>0.338186</v>
       </c>
       <c r="I2">
-        <v>0.9070251432894777</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9070251432894778</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.153342666666667</v>
+        <v>0.5127123333333333</v>
       </c>
       <c r="N2">
-        <v>3.460028</v>
+        <v>1.538137</v>
       </c>
       <c r="O2">
-        <v>0.643380449723014</v>
+        <v>0.4737471074894348</v>
       </c>
       <c r="P2">
-        <v>0.643380449723014</v>
+        <v>0.4737471074894348</v>
       </c>
       <c r="Q2">
-        <v>1.268371681974222</v>
+        <v>0.05779737772022222</v>
       </c>
       <c r="R2">
-        <v>11.415345137768</v>
+        <v>0.5201763994819999</v>
       </c>
       <c r="S2">
-        <v>0.5835622445996653</v>
+        <v>0.4737471074894348</v>
       </c>
       <c r="T2">
-        <v>0.5835622445996654</v>
+        <v>0.4737471074894348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.099735333333333</v>
+        <v>0.1127286666666667</v>
       </c>
       <c r="H3">
-        <v>3.299206</v>
+        <v>0.338186</v>
       </c>
       <c r="I3">
-        <v>0.9070251432894777</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9070251432894778</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.636573</v>
       </c>
       <c r="O3">
-        <v>0.304315188415973</v>
+        <v>0.5040654538219332</v>
       </c>
       <c r="P3">
-        <v>0.304315188415973</v>
+        <v>0.5040654538219331</v>
       </c>
       <c r="Q3">
-        <v>0.5999323845597778</v>
+        <v>0.06149623073088889</v>
       </c>
       <c r="R3">
-        <v>5.399391461038</v>
+        <v>0.553466076578</v>
       </c>
       <c r="S3">
-        <v>0.2760215273781623</v>
+        <v>0.5040654538219332</v>
       </c>
       <c r="T3">
-        <v>0.2760215273781623</v>
+        <v>0.5040654538219331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.099735333333333</v>
+        <v>0.1127286666666667</v>
       </c>
       <c r="H4">
-        <v>3.299206</v>
+        <v>0.338186</v>
       </c>
       <c r="I4">
-        <v>0.9070251432894777</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9070251432894778</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,214 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09376233333333334</v>
+        <v>0.02401233333333333</v>
       </c>
       <c r="N4">
-        <v>0.281287</v>
+        <v>0.07203699999999999</v>
       </c>
       <c r="O4">
-        <v>0.0523043618610131</v>
+        <v>0.02218743868863203</v>
       </c>
       <c r="P4">
-        <v>0.0523043618610131</v>
+        <v>0.02218743868863203</v>
       </c>
       <c r="Q4">
-        <v>0.1031137509024444</v>
+        <v>0.002706878320222222</v>
       </c>
       <c r="R4">
-        <v>0.928023758122</v>
+        <v>0.02436190488199999</v>
       </c>
       <c r="S4">
-        <v>0.0474413713116501</v>
+        <v>0.02218743868863203</v>
       </c>
       <c r="T4">
-        <v>0.0474413713116501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1127286666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.338186</v>
-      </c>
-      <c r="I5">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="J5">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>1.153342666666667</v>
-      </c>
-      <c r="N5">
-        <v>3.460028</v>
-      </c>
-      <c r="O5">
-        <v>0.643380449723014</v>
-      </c>
-      <c r="P5">
-        <v>0.643380449723014</v>
-      </c>
-      <c r="Q5">
-        <v>0.1300147810231111</v>
-      </c>
-      <c r="R5">
-        <v>1.170133029208</v>
-      </c>
-      <c r="S5">
-        <v>0.0598182051233486</v>
-      </c>
-      <c r="T5">
-        <v>0.0598182051233486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1127286666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.338186</v>
-      </c>
-      <c r="I6">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="J6">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.5455243333333334</v>
-      </c>
-      <c r="N6">
-        <v>1.636573</v>
-      </c>
-      <c r="O6">
-        <v>0.304315188415973</v>
-      </c>
-      <c r="P6">
-        <v>0.304315188415973</v>
-      </c>
-      <c r="Q6">
-        <v>0.06149623073088889</v>
-      </c>
-      <c r="R6">
-        <v>0.553466076578</v>
-      </c>
-      <c r="S6">
-        <v>0.02829366103781067</v>
-      </c>
-      <c r="T6">
-        <v>0.02829366103781067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1127286666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.338186</v>
-      </c>
-      <c r="I7">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="J7">
-        <v>0.09297485671052226</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.09376233333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.281287</v>
-      </c>
-      <c r="O7">
-        <v>0.0523043618610131</v>
-      </c>
-      <c r="P7">
-        <v>0.0523043618610131</v>
-      </c>
-      <c r="Q7">
-        <v>0.01056970282022222</v>
-      </c>
-      <c r="R7">
-        <v>0.095127325382</v>
-      </c>
-      <c r="S7">
-        <v>0.004862990549362999</v>
-      </c>
-      <c r="T7">
-        <v>0.004862990549362999</v>
+        <v>0.02218743868863203</v>
       </c>
     </row>
   </sheetData>
